--- a/data_year/zb/固定资产投资和房地产/房地产开发企业从业人员数.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业从业人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>862245</v>
+        <v>1908969</v>
       </c>
       <c r="C2" t="n">
-        <v>292252</v>
+        <v>155156</v>
       </c>
       <c r="D2" t="n">
-        <v>30631</v>
+        <v>76332</v>
       </c>
       <c r="E2" t="n">
-        <v>971942</v>
+        <v>2091147</v>
       </c>
       <c r="F2" t="n">
-        <v>79066</v>
+        <v>105846</v>
       </c>
       <c r="G2" t="n">
-        <v>116416</v>
+        <v>25428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949580</v>
+        <v>2075474</v>
       </c>
       <c r="C3" t="n">
-        <v>257695</v>
+        <v>135420</v>
       </c>
       <c r="D3" t="n">
-        <v>31071</v>
+        <v>68500</v>
       </c>
       <c r="E3" t="n">
-        <v>1062319</v>
+        <v>2256964</v>
       </c>
       <c r="F3" t="n">
-        <v>81668</v>
+        <v>112990</v>
       </c>
       <c r="G3" t="n">
-        <v>109826</v>
+        <v>21237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014254</v>
+        <v>2199815</v>
       </c>
       <c r="C4" t="n">
-        <v>208722</v>
+        <v>123593</v>
       </c>
       <c r="D4" t="n">
-        <v>34306</v>
+        <v>70108</v>
       </c>
       <c r="E4" t="n">
-        <v>1134009</v>
+        <v>2386772</v>
       </c>
       <c r="F4" t="n">
-        <v>85449</v>
+        <v>116849</v>
       </c>
       <c r="G4" t="n">
-        <v>89739</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1086923</v>
+        <v>2397762</v>
       </c>
       <c r="C5" t="n">
-        <v>179614</v>
+        <v>66072</v>
       </c>
       <c r="D5" t="n">
-        <v>39035</v>
+        <v>72245</v>
       </c>
       <c r="E5" t="n">
-        <v>1205355</v>
+        <v>2591814</v>
       </c>
       <c r="F5" t="n">
-        <v>79397</v>
+        <v>121807</v>
       </c>
       <c r="G5" t="n">
-        <v>72400</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1429291</v>
+        <v>2561817</v>
       </c>
       <c r="C6" t="n">
-        <v>163495</v>
+        <v>61512</v>
       </c>
       <c r="D6" t="n">
-        <v>60491</v>
+        <v>68966</v>
       </c>
       <c r="E6" t="n">
-        <v>1585428</v>
+        <v>2760070</v>
       </c>
       <c r="F6" t="n">
-        <v>95646</v>
+        <v>129287</v>
       </c>
       <c r="G6" t="n">
-        <v>58514</v>
+        <v>11414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1366743</v>
+        <v>2551484</v>
       </c>
       <c r="C7" t="n">
-        <v>140106</v>
+        <v>57273</v>
       </c>
       <c r="D7" t="n">
-        <v>58733</v>
+        <v>62476</v>
       </c>
       <c r="E7" t="n">
-        <v>1516150</v>
+        <v>2738454</v>
       </c>
       <c r="F7" t="n">
-        <v>90674</v>
+        <v>124494</v>
       </c>
       <c r="G7" t="n">
-        <v>40978</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1442158</v>
+        <v>2576545</v>
       </c>
       <c r="C8" t="n">
-        <v>132259</v>
+        <v>47085</v>
       </c>
       <c r="D8" t="n">
-        <v>61084</v>
+        <v>57258</v>
       </c>
       <c r="E8" t="n">
-        <v>1600930</v>
+        <v>2752298</v>
       </c>
       <c r="F8" t="n">
-        <v>97688</v>
+        <v>118495</v>
       </c>
       <c r="G8" t="n">
-        <v>38367</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1541336</v>
+        <v>2663954</v>
       </c>
       <c r="C9" t="n">
-        <v>121137</v>
+        <v>37904</v>
       </c>
       <c r="D9" t="n">
-        <v>77932</v>
+        <v>53785</v>
       </c>
       <c r="E9" t="n">
-        <v>1719666</v>
+        <v>2830960</v>
       </c>
       <c r="F9" t="n">
-        <v>100398</v>
+        <v>113221</v>
       </c>
       <c r="G9" t="n">
-        <v>34498</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1906029</v>
+        <v>2735301</v>
       </c>
       <c r="C10" t="n">
-        <v>127511</v>
+        <v>31383</v>
       </c>
       <c r="D10" t="n">
-        <v>85087</v>
+        <v>49486</v>
       </c>
       <c r="E10" t="n">
-        <v>2100362</v>
+        <v>2889165</v>
       </c>
       <c r="F10" t="n">
-        <v>109246</v>
+        <v>104378</v>
       </c>
       <c r="G10" t="n">
-        <v>29602</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1763867</v>
+        <v>2784130</v>
       </c>
       <c r="C11" t="n">
-        <v>123866</v>
+        <v>25129</v>
       </c>
       <c r="D11" t="n">
-        <v>75463</v>
+        <v>49503</v>
       </c>
       <c r="E11" t="n">
-        <v>1949295</v>
+        <v>2937379</v>
       </c>
       <c r="F11" t="n">
-        <v>109965</v>
+        <v>103746</v>
       </c>
       <c r="G11" t="n">
-        <v>29049</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1908969</v>
+        <v>2746467</v>
       </c>
       <c r="C12" t="n">
-        <v>155156</v>
+        <v>36517</v>
       </c>
       <c r="D12" t="n">
-        <v>76332</v>
+        <v>52862</v>
       </c>
       <c r="E12" t="n">
-        <v>2091147</v>
+        <v>2901253</v>
       </c>
       <c r="F12" t="n">
-        <v>105846</v>
+        <v>101924</v>
       </c>
       <c r="G12" t="n">
-        <v>25428</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2075474</v>
+        <v>2657629</v>
       </c>
       <c r="C13" t="n">
-        <v>135420</v>
+        <v>35442</v>
       </c>
       <c r="D13" t="n">
-        <v>68500</v>
+        <v>51528</v>
       </c>
       <c r="E13" t="n">
-        <v>2256964</v>
+        <v>2801571</v>
       </c>
       <c r="F13" t="n">
-        <v>112990</v>
+        <v>92414</v>
       </c>
       <c r="G13" t="n">
-        <v>21237</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2199815</v>
-      </c>
-      <c r="C14" t="n">
-        <v>123593</v>
-      </c>
-      <c r="D14" t="n">
-        <v>70108</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2386772</v>
-      </c>
-      <c r="F14" t="n">
-        <v>116849</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20398</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2397762</v>
-      </c>
-      <c r="C15" t="n">
-        <v>66072</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72245</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2591814</v>
-      </c>
-      <c r="F15" t="n">
-        <v>121807</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12976</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2561817</v>
-      </c>
-      <c r="C16" t="n">
-        <v>61512</v>
-      </c>
-      <c r="D16" t="n">
-        <v>68966</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2760070</v>
-      </c>
-      <c r="F16" t="n">
-        <v>129287</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11414</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2551484</v>
-      </c>
-      <c r="C17" t="n">
-        <v>57273</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62476</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2738454</v>
-      </c>
-      <c r="F17" t="n">
-        <v>124494</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10771</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2576545</v>
-      </c>
-      <c r="C18" t="n">
-        <v>47085</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57258</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2752298</v>
-      </c>
-      <c r="F18" t="n">
-        <v>118495</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9916</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2663954</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37904</v>
-      </c>
-      <c r="D19" t="n">
-        <v>53785</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2830960</v>
-      </c>
-      <c r="F19" t="n">
-        <v>113221</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9092</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2735301</v>
-      </c>
-      <c r="C20" t="n">
-        <v>31383</v>
-      </c>
-      <c r="D20" t="n">
-        <v>49486</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2889165</v>
-      </c>
-      <c r="F20" t="n">
-        <v>104378</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6585</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2784130</v>
-      </c>
-      <c r="C21" t="n">
-        <v>25129</v>
-      </c>
-      <c r="D21" t="n">
-        <v>49503</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2937379</v>
-      </c>
-      <c r="F21" t="n">
-        <v>103746</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2746467</v>
-      </c>
-      <c r="C22" t="n">
-        <v>36517</v>
-      </c>
-      <c r="D22" t="n">
-        <v>52862</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2901253</v>
-      </c>
-      <c r="F22" t="n">
-        <v>101924</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4953</v>
+        <v>4085</v>
       </c>
     </row>
   </sheetData>
